--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1020"/>
+  <dimension ref="A1:I1021"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36092,6 +36092,41 @@
         <v>1221000</v>
       </c>
     </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1021" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>3941000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1021"/>
+  <dimension ref="A1:I1022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36127,6 +36127,41 @@
         <v>3941000</v>
       </c>
     </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1022" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>8992200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1022"/>
+  <dimension ref="A1:I1023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36162,6 +36162,41 @@
         <v>8992200</v>
       </c>
     </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1023" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>12433400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1023"/>
+  <dimension ref="A1:I1024"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36197,6 +36197,41 @@
         <v>12433400</v>
       </c>
     </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1024" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>2518400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1024"/>
+  <dimension ref="A1:I1025"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36232,6 +36232,41 @@
         <v>2518400</v>
       </c>
     </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1025" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>6654300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1025"/>
+  <dimension ref="A1:I1026"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36267,6 +36267,41 @@
         <v>6654300</v>
       </c>
     </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1026" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>3216500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1026"/>
+  <dimension ref="A1:I1027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36302,6 +36302,41 @@
         <v>3216500</v>
       </c>
     </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1027" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>1213400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1027"/>
+  <dimension ref="A1:I1028"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36337,6 +36337,41 @@
         <v>1213400</v>
       </c>
     </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1028" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>1644000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1028"/>
+  <dimension ref="A1:I1029"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36372,6 +36372,41 @@
         <v>1644000</v>
       </c>
     </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1029" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>2476600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1029"/>
+  <dimension ref="A1:I1030"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36407,6 +36407,41 @@
         <v>2476600</v>
       </c>
     </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1030" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>3315700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1030"/>
+  <dimension ref="A1:I1031"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36442,6 +36442,41 @@
         <v>3315700</v>
       </c>
     </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1031" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>2569300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1031"/>
+  <dimension ref="A1:I1032"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36477,6 +36477,41 @@
         <v>2569300</v>
       </c>
     </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1032" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>3240600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1032"/>
+  <dimension ref="A1:I1034"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36512,6 +36512,76 @@
         <v>3240600</v>
       </c>
     </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1033" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>1380100</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1034" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>4093300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1034"/>
+  <dimension ref="A1:I1036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36582,6 +36582,76 @@
         <v>4093300</v>
       </c>
     </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1035" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>2756100</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1036" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>2045100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1036"/>
+  <dimension ref="A1:I1037"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36652,6 +36652,41 @@
         <v>2045100</v>
       </c>
     </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1037" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>1446900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1037"/>
+  <dimension ref="A1:I1038"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36687,6 +36687,41 @@
         <v>1446900</v>
       </c>
     </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1038" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>4433200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1038"/>
+  <dimension ref="A1:I1039"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36722,6 +36722,41 @@
         <v>4433200</v>
       </c>
     </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1039" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>5878300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1039"/>
+  <dimension ref="A1:I1040"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36757,6 +36757,41 @@
         <v>5878300</v>
       </c>
     </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1040" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>3898400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1040"/>
+  <dimension ref="A1:I1042"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36792,6 +36792,76 @@
         <v>3898400</v>
       </c>
     </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1041" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>4357000</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1042" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>2172100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1042"/>
+  <dimension ref="A1:I1043"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36862,6 +36862,41 @@
         <v>2172100</v>
       </c>
     </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1043" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>1652800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1043"/>
+  <dimension ref="A1:I1044"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36897,6 +36897,41 @@
         <v>1652800</v>
       </c>
     </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1044" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>2810200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1044"/>
+  <dimension ref="A1:I1053"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34377,11 +34377,11 @@
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -34395,28 +34395,28 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F972" t="n">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="G972" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H972" t="n">
         <v>0.155</v>
       </c>
-      <c r="H972" t="n">
-        <v>0.16</v>
-      </c>
       <c r="I972" t="n">
-        <v>531200</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -34430,28 +34430,28 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="F973" t="n">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="G973" t="n">
-        <v>0.145</v>
+        <v>0.155</v>
       </c>
       <c r="H973" t="n">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="I973" t="n">
-        <v>406000</v>
+        <v>439700</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -34465,28 +34465,28 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>0.145</v>
+        <v>0.155</v>
       </c>
       <c r="F974" t="n">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="G974" t="n">
-        <v>0.14</v>
+        <v>0.155</v>
       </c>
       <c r="H974" t="n">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="I974" t="n">
-        <v>490200</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -34500,28 +34500,28 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>0.145</v>
+        <v>0.155</v>
       </c>
       <c r="F975" t="n">
-        <v>0.145</v>
+        <v>0.165</v>
       </c>
       <c r="G975" t="n">
-        <v>0.14</v>
+        <v>0.155</v>
       </c>
       <c r="H975" t="n">
-        <v>0.145</v>
+        <v>0.165</v>
       </c>
       <c r="I975" t="n">
-        <v>200300</v>
+        <v>1165600</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -34535,28 +34535,28 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>0.145</v>
+        <v>0.165</v>
       </c>
       <c r="F976" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="G976" t="n">
-        <v>0.145</v>
+        <v>0.16</v>
       </c>
       <c r="H976" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I976" t="n">
-        <v>940600</v>
+        <v>267000</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
@@ -34570,28 +34570,28 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="F977" t="n">
-        <v>0.155</v>
+        <v>0.165</v>
       </c>
       <c r="G977" t="n">
-        <v>0.145</v>
+        <v>0.16</v>
       </c>
       <c r="H977" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I977" t="n">
-        <v>1081000</v>
+        <v>233800</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -34605,28 +34605,28 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="F978" t="n">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="G978" t="n">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="H978" t="n">
         <v>0.155</v>
       </c>
       <c r="I978" t="n">
-        <v>1890700</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
@@ -34640,28 +34640,28 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>0.155</v>
+        <v>0.16</v>
       </c>
       <c r="F979" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G979" t="n">
         <v>0.16</v>
       </c>
-      <c r="G979" t="n">
-        <v>0.155</v>
-      </c>
       <c r="H979" t="n">
-        <v>0.155</v>
+        <v>0.165</v>
       </c>
       <c r="I979" t="n">
-        <v>394900</v>
+        <v>233000</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -34675,28 +34675,28 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>0.155</v>
+        <v>0.16</v>
       </c>
       <c r="F980" t="n">
-        <v>0.155</v>
+        <v>0.16</v>
       </c>
       <c r="G980" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="H980" t="n">
-        <v>0.155</v>
+        <v>0.16</v>
       </c>
       <c r="I980" t="n">
-        <v>497300</v>
+        <v>253100</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -34710,28 +34710,28 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F981" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="G981" t="n">
-        <v>0.145</v>
+        <v>0.155</v>
       </c>
       <c r="H981" t="n">
-        <v>0.145</v>
+        <v>0.16</v>
       </c>
       <c r="I981" t="n">
-        <v>717200</v>
+        <v>531200</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -34745,28 +34745,28 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="F982" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="G982" t="n">
         <v>0.145</v>
       </c>
       <c r="H982" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="I982" t="n">
-        <v>215000</v>
+        <v>406000</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -34783,25 +34783,25 @@
         <v>0.145</v>
       </c>
       <c r="F983" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="G983" t="n">
-        <v>0.145</v>
+        <v>0.14</v>
       </c>
       <c r="H983" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="I983" t="n">
-        <v>20000</v>
+        <v>490200</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -34821,22 +34821,22 @@
         <v>0.145</v>
       </c>
       <c r="G984" t="n">
-        <v>0.145</v>
+        <v>0.14</v>
       </c>
       <c r="H984" t="n">
         <v>0.145</v>
       </c>
       <c r="I984" t="n">
-        <v>70000</v>
+        <v>200300</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
@@ -34859,19 +34859,19 @@
         <v>0.145</v>
       </c>
       <c r="H985" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="I985" t="n">
-        <v>761700</v>
+        <v>940600</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -34885,28 +34885,28 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="F986" t="n">
-        <v>0.145</v>
+        <v>0.155</v>
       </c>
       <c r="G986" t="n">
         <v>0.145</v>
       </c>
       <c r="H986" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="I986" t="n">
-        <v>209200</v>
+        <v>1081000</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
@@ -34920,28 +34920,28 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="F987" t="n">
-        <v>0.145</v>
+        <v>0.16</v>
       </c>
       <c r="G987" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="H987" t="n">
-        <v>0.145</v>
+        <v>0.155</v>
       </c>
       <c r="I987" t="n">
-        <v>58800</v>
+        <v>1890700</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -34955,28 +34955,28 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>0.145</v>
+        <v>0.155</v>
       </c>
       <c r="F988" t="n">
-        <v>0.145</v>
+        <v>0.16</v>
       </c>
       <c r="G988" t="n">
-        <v>0.145</v>
+        <v>0.155</v>
       </c>
       <c r="H988" t="n">
-        <v>0.145</v>
+        <v>0.155</v>
       </c>
       <c r="I988" t="n">
-        <v>238900</v>
+        <v>394900</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
@@ -34990,28 +34990,28 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>0.145</v>
+        <v>0.155</v>
       </c>
       <c r="F989" t="n">
-        <v>0.145</v>
+        <v>0.155</v>
       </c>
       <c r="G989" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="H989" t="n">
-        <v>0.14</v>
+        <v>0.155</v>
       </c>
       <c r="I989" t="n">
-        <v>742700</v>
+        <v>497300</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -35025,28 +35025,28 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="F990" t="n">
         <v>0.15</v>
       </c>
       <c r="G990" t="n">
-        <v>0.14</v>
+        <v>0.145</v>
       </c>
       <c r="H990" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="I990" t="n">
-        <v>487100</v>
+        <v>717200</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -35072,16 +35072,16 @@
         <v>0.145</v>
       </c>
       <c r="I991" t="n">
-        <v>60000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
@@ -35107,16 +35107,16 @@
         <v>0.145</v>
       </c>
       <c r="I992" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
@@ -35133,7 +35133,7 @@
         <v>0.145</v>
       </c>
       <c r="F993" t="n">
-        <v>0.155</v>
+        <v>0.145</v>
       </c>
       <c r="G993" t="n">
         <v>0.145</v>
@@ -35142,16 +35142,16 @@
         <v>0.145</v>
       </c>
       <c r="I993" t="n">
-        <v>453000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -35165,28 +35165,28 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="F994" t="n">
         <v>0.15</v>
       </c>
       <c r="G994" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="H994" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="I994" t="n">
-        <v>345000</v>
+        <v>761700</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -35200,28 +35200,28 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="F995" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="G995" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="H995" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="I995" t="n">
-        <v>143000</v>
+        <v>209200</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
@@ -35247,16 +35247,16 @@
         <v>0.145</v>
       </c>
       <c r="I996" t="n">
-        <v>465300</v>
+        <v>58800</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -35270,28 +35270,28 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="F997" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="G997" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="H997" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="I997" t="n">
-        <v>78000</v>
+        <v>238900</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
@@ -35311,22 +35311,22 @@
         <v>0.145</v>
       </c>
       <c r="G998" t="n">
-        <v>0.145</v>
+        <v>0.14</v>
       </c>
       <c r="H998" t="n">
-        <v>0.145</v>
+        <v>0.14</v>
       </c>
       <c r="I998" t="n">
-        <v>62200</v>
+        <v>742700</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -35340,28 +35340,28 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="F999" t="n">
         <v>0.15</v>
       </c>
       <c r="G999" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="H999" t="n">
         <v>0.15</v>
       </c>
       <c r="I999" t="n">
-        <v>50000</v>
+        <v>487100</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -35375,10 +35375,10 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="F1000" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="G1000" t="n">
         <v>0.145</v>
@@ -35387,16 +35387,16 @@
         <v>0.145</v>
       </c>
       <c r="I1000" t="n">
-        <v>56200</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
@@ -35410,28 +35410,28 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="F1001" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="G1001" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="H1001" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="I1001" t="n">
-        <v>689000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr">
@@ -35448,7 +35448,7 @@
         <v>0.145</v>
       </c>
       <c r="F1002" t="n">
-        <v>0.145</v>
+        <v>0.155</v>
       </c>
       <c r="G1002" t="n">
         <v>0.145</v>
@@ -35457,16 +35457,16 @@
         <v>0.145</v>
       </c>
       <c r="I1002" t="n">
-        <v>20000</v>
+        <v>453000</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
@@ -35480,28 +35480,28 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="F1003" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="G1003" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="H1003" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="I1003" t="n">
-        <v>70000</v>
+        <v>345000</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
@@ -35515,28 +35515,28 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="F1004" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="G1004" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="H1004" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="I1004" t="n">
-        <v>130000</v>
+        <v>143000</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr">
@@ -35553,25 +35553,25 @@
         <v>0.145</v>
       </c>
       <c r="F1005" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="G1005" t="n">
         <v>0.145</v>
       </c>
       <c r="H1005" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="I1005" t="n">
-        <v>30000</v>
+        <v>465300</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
@@ -35588,25 +35588,25 @@
         <v>0.15</v>
       </c>
       <c r="F1006" t="n">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="G1006" t="n">
         <v>0.15</v>
       </c>
       <c r="H1006" t="n">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="I1006" t="n">
-        <v>623700</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr">
@@ -35620,30 +35620,28 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>0.155</v>
+        <v>0.145</v>
       </c>
       <c r="F1007" t="n">
-        <v>0.155</v>
+        <v>0.145</v>
       </c>
       <c r="G1007" t="n">
-        <v>0.155</v>
+        <v>0.145</v>
       </c>
       <c r="H1007" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="I1007" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.145</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>62200</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr">
@@ -35657,28 +35655,28 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="F1008" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G1008" t="n">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="H1008" t="n">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="I1008" t="n">
-        <v>1142400</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
@@ -35692,28 +35690,28 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>0.175</v>
+        <v>0.15</v>
       </c>
       <c r="F1009" t="n">
-        <v>0.195</v>
+        <v>0.15</v>
       </c>
       <c r="G1009" t="n">
-        <v>0.175</v>
+        <v>0.145</v>
       </c>
       <c r="H1009" t="n">
-        <v>0.18</v>
+        <v>0.145</v>
       </c>
       <c r="I1009" t="n">
-        <v>11076700</v>
+        <v>56200</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
@@ -35727,28 +35725,28 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="F1010" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="G1010" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="H1010" t="n">
-        <v>0.175</v>
+        <v>0.15</v>
       </c>
       <c r="I1010" t="n">
-        <v>1336400</v>
+        <v>689000</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
@@ -35762,28 +35760,28 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>0.17</v>
+        <v>0.145</v>
       </c>
       <c r="F1011" t="n">
-        <v>0.17</v>
+        <v>0.145</v>
       </c>
       <c r="G1011" t="n">
-        <v>0.155</v>
+        <v>0.145</v>
       </c>
       <c r="H1011" t="n">
-        <v>0.16</v>
+        <v>0.145</v>
       </c>
       <c r="I1011" t="n">
-        <v>1975000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
@@ -35797,28 +35795,28 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>0.155</v>
+        <v>0.145</v>
       </c>
       <c r="F1012" t="n">
-        <v>0.165</v>
+        <v>0.145</v>
       </c>
       <c r="G1012" t="n">
-        <v>0.155</v>
+        <v>0.145</v>
       </c>
       <c r="H1012" t="n">
-        <v>0.155</v>
+        <v>0.145</v>
       </c>
       <c r="I1012" t="n">
-        <v>1225700</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
@@ -35832,28 +35830,28 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>0.16</v>
+        <v>0.145</v>
       </c>
       <c r="F1013" t="n">
-        <v>0.165</v>
+        <v>0.145</v>
       </c>
       <c r="G1013" t="n">
-        <v>0.155</v>
+        <v>0.145</v>
       </c>
       <c r="H1013" t="n">
-        <v>0.16</v>
+        <v>0.145</v>
       </c>
       <c r="I1013" t="n">
-        <v>2096100</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
@@ -35867,28 +35865,28 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>0.16</v>
+        <v>0.145</v>
       </c>
       <c r="F1014" t="n">
-        <v>0.165</v>
+        <v>0.15</v>
       </c>
       <c r="G1014" t="n">
-        <v>0.155</v>
+        <v>0.145</v>
       </c>
       <c r="H1014" t="n">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="I1014" t="n">
-        <v>1212400</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -35902,28 +35900,28 @@
         </is>
       </c>
       <c r="E1015" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1015" t="n">
         <v>0.155</v>
       </c>
-      <c r="F1015" t="n">
-        <v>0.16</v>
-      </c>
       <c r="G1015" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1015" t="n">
         <v>0.155</v>
       </c>
-      <c r="H1015" t="n">
-        <v>0.16</v>
-      </c>
       <c r="I1015" t="n">
-        <v>771900</v>
+        <v>623700</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
@@ -35937,28 +35935,30 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="F1016" t="n">
-        <v>0.165</v>
+        <v>0.155</v>
       </c>
       <c r="G1016" t="n">
         <v>0.155</v>
       </c>
       <c r="H1016" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="I1016" t="n">
-        <v>1909600</v>
+        <v>0.155</v>
+      </c>
+      <c r="I1016" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
@@ -35972,28 +35972,28 @@
         </is>
       </c>
       <c r="E1017" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1017" t="n">
         <v>0.16</v>
-      </c>
-      <c r="F1017" t="n">
-        <v>0.17</v>
       </c>
       <c r="G1017" t="n">
         <v>0.155</v>
       </c>
       <c r="H1017" t="n">
-        <v>0.165</v>
+        <v>0.155</v>
       </c>
       <c r="I1017" t="n">
-        <v>2152200</v>
+        <v>1142400</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -36007,28 +36007,28 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="F1018" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1018" t="n">
         <v>0.175</v>
       </c>
-      <c r="G1018" t="n">
-        <v>0.17</v>
-      </c>
       <c r="H1018" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I1018" t="n">
-        <v>2097200</v>
+        <v>11076700</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
@@ -36045,25 +36045,25 @@
         <v>0.18</v>
       </c>
       <c r="F1019" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="G1019" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1019" t="n">
         <v>0.175</v>
       </c>
-      <c r="H1019" t="n">
-        <v>0.19</v>
-      </c>
       <c r="I1019" t="n">
-        <v>17287300</v>
+        <v>1336400</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
@@ -36077,28 +36077,28 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F1020" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="G1020" t="n">
-        <v>0.18</v>
+        <v>0.155</v>
       </c>
       <c r="H1020" t="n">
-        <v>0.185</v>
+        <v>0.16</v>
       </c>
       <c r="I1020" t="n">
-        <v>1221000</v>
+        <v>1975000</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
@@ -36112,28 +36112,28 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>0.185</v>
+        <v>0.155</v>
       </c>
       <c r="F1021" t="n">
-        <v>0.2</v>
+        <v>0.165</v>
       </c>
       <c r="G1021" t="n">
-        <v>0.185</v>
+        <v>0.155</v>
       </c>
       <c r="H1021" t="n">
-        <v>0.19</v>
+        <v>0.155</v>
       </c>
       <c r="I1021" t="n">
-        <v>3941000</v>
+        <v>1225700</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -36147,28 +36147,28 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="F1022" t="n">
-        <v>0.205</v>
+        <v>0.165</v>
       </c>
       <c r="G1022" t="n">
-        <v>0.19</v>
+        <v>0.155</v>
       </c>
       <c r="H1022" t="n">
-        <v>0.205</v>
+        <v>0.16</v>
       </c>
       <c r="I1022" t="n">
-        <v>8992200</v>
+        <v>2096100</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
@@ -36182,28 +36182,28 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>0.205</v>
+        <v>0.16</v>
       </c>
       <c r="F1023" t="n">
-        <v>0.22</v>
+        <v>0.165</v>
       </c>
       <c r="G1023" t="n">
-        <v>0.2</v>
+        <v>0.155</v>
       </c>
       <c r="H1023" t="n">
-        <v>0.2</v>
+        <v>0.155</v>
       </c>
       <c r="I1023" t="n">
-        <v>12433400</v>
+        <v>1212400</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
@@ -36217,28 +36217,28 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>0.2</v>
+        <v>0.155</v>
       </c>
       <c r="F1024" t="n">
-        <v>0.205</v>
+        <v>0.16</v>
       </c>
       <c r="G1024" t="n">
-        <v>0.195</v>
+        <v>0.155</v>
       </c>
       <c r="H1024" t="n">
-        <v>0.205</v>
+        <v>0.16</v>
       </c>
       <c r="I1024" t="n">
-        <v>2518400</v>
+        <v>771900</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
@@ -36252,28 +36252,28 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>0.205</v>
+        <v>0.16</v>
       </c>
       <c r="F1025" t="n">
-        <v>0.215</v>
+        <v>0.165</v>
       </c>
       <c r="G1025" t="n">
-        <v>0.2</v>
+        <v>0.155</v>
       </c>
       <c r="H1025" t="n">
-        <v>0.205</v>
+        <v>0.16</v>
       </c>
       <c r="I1025" t="n">
-        <v>6654300</v>
+        <v>1909600</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
@@ -36287,28 +36287,28 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="F1026" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="G1026" t="n">
-        <v>0.2</v>
+        <v>0.155</v>
       </c>
       <c r="H1026" t="n">
-        <v>0.2</v>
+        <v>0.165</v>
       </c>
       <c r="I1026" t="n">
-        <v>3216500</v>
+        <v>2152200</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
@@ -36322,28 +36322,28 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>0.205</v>
+        <v>0.17</v>
       </c>
       <c r="F1027" t="n">
-        <v>0.21</v>
+        <v>0.175</v>
       </c>
       <c r="G1027" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="H1027" t="n">
-        <v>0.205</v>
+        <v>0.17</v>
       </c>
       <c r="I1027" t="n">
-        <v>1213400</v>
+        <v>2097200</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -36357,28 +36357,28 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>0.205</v>
+        <v>0.18</v>
       </c>
       <c r="F1028" t="n">
         <v>0.21</v>
       </c>
       <c r="G1028" t="n">
-        <v>0.2</v>
+        <v>0.175</v>
       </c>
       <c r="H1028" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I1028" t="n">
-        <v>1644000</v>
+        <v>17287300</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
@@ -36392,28 +36392,28 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>0.205</v>
+        <v>0.18</v>
       </c>
       <c r="F1029" t="n">
-        <v>0.205</v>
+        <v>0.19</v>
       </c>
       <c r="G1029" t="n">
-        <v>0.195</v>
+        <v>0.18</v>
       </c>
       <c r="H1029" t="n">
-        <v>0.2</v>
+        <v>0.185</v>
       </c>
       <c r="I1029" t="n">
-        <v>2476600</v>
+        <v>1221000</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -36427,7 +36427,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>0.195</v>
+        <v>0.185</v>
       </c>
       <c r="F1030" t="n">
         <v>0.2</v>
@@ -36439,16 +36439,16 @@
         <v>0.19</v>
       </c>
       <c r="I1030" t="n">
-        <v>3315700</v>
+        <v>3941000</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -36462,28 +36462,28 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F1031" t="n">
-        <v>0.195</v>
+        <v>0.205</v>
       </c>
       <c r="G1031" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="H1031" t="n">
-        <v>0.195</v>
+        <v>0.205</v>
       </c>
       <c r="I1031" t="n">
-        <v>2569300</v>
+        <v>8992200</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
@@ -36497,28 +36497,28 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>0.195</v>
+        <v>0.205</v>
       </c>
       <c r="F1032" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1032" t="n">
         <v>0.2</v>
       </c>
-      <c r="G1032" t="n">
-        <v>0.19</v>
-      </c>
       <c r="H1032" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="I1032" t="n">
-        <v>3240600</v>
+        <v>12433400</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
@@ -36532,28 +36532,28 @@
         </is>
       </c>
       <c r="E1033" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1033" t="n">
         <v>0.195</v>
       </c>
-      <c r="F1033" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="G1033" t="n">
-        <v>0.19</v>
-      </c>
       <c r="H1033" t="n">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="I1033" t="n">
-        <v>1380100</v>
+        <v>2518400</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
@@ -36567,28 +36567,28 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="F1034" t="n">
-        <v>0.19</v>
+        <v>0.215</v>
       </c>
       <c r="G1034" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="H1034" t="n">
-        <v>0.175</v>
+        <v>0.205</v>
       </c>
       <c r="I1034" t="n">
-        <v>4093300</v>
+        <v>6654300</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C1035" t="inlineStr">
@@ -36602,28 +36602,28 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="F1035" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="G1035" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="H1035" t="n">
-        <v>0.165</v>
+        <v>0.2</v>
       </c>
       <c r="I1035" t="n">
-        <v>2756100</v>
+        <v>3216500</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
@@ -36637,28 +36637,28 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>0.17</v>
+        <v>0.205</v>
       </c>
       <c r="F1036" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="G1036" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="H1036" t="n">
-        <v>0.175</v>
+        <v>0.205</v>
       </c>
       <c r="I1036" t="n">
-        <v>2045100</v>
+        <v>1213400</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
@@ -36672,28 +36672,28 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>0.17</v>
+        <v>0.205</v>
       </c>
       <c r="F1037" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="G1037" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="H1037" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I1037" t="n">
-        <v>1446900</v>
+        <v>1644000</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
@@ -36707,28 +36707,28 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>0.185</v>
+        <v>0.205</v>
       </c>
       <c r="F1038" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1038" t="n">
         <v>0.2</v>
       </c>
-      <c r="G1038" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="H1038" t="n">
-        <v>0.19</v>
-      </c>
       <c r="I1038" t="n">
-        <v>4433200</v>
+        <v>2476600</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -36742,28 +36742,28 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="F1039" t="n">
         <v>0.2</v>
       </c>
       <c r="G1039" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="H1039" t="n">
         <v>0.19</v>
       </c>
       <c r="I1039" t="n">
-        <v>5878300</v>
+        <v>3315700</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
@@ -36780,25 +36780,25 @@
         <v>0.18</v>
       </c>
       <c r="F1040" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1040" t="n">
         <v>0.18</v>
       </c>
-      <c r="G1040" t="n">
-        <v>0.165</v>
-      </c>
       <c r="H1040" t="n">
-        <v>0.17</v>
+        <v>0.195</v>
       </c>
       <c r="I1040" t="n">
-        <v>3898400</v>
+        <v>2569300</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C1041" t="inlineStr">
@@ -36812,28 +36812,28 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>0.165</v>
+        <v>0.195</v>
       </c>
       <c r="F1041" t="n">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="G1041" t="n">
-        <v>0.165</v>
+        <v>0.19</v>
       </c>
       <c r="H1041" t="n">
-        <v>0.18</v>
+        <v>0.195</v>
       </c>
       <c r="I1041" t="n">
-        <v>4357000</v>
+        <v>3240600</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
@@ -36847,28 +36847,28 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>0.18</v>
+        <v>0.195</v>
       </c>
       <c r="F1042" t="n">
-        <v>0.185</v>
+        <v>0.195</v>
       </c>
       <c r="G1042" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="H1042" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="I1042" t="n">
-        <v>2172100</v>
+        <v>1380100</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
@@ -36882,53 +36882,368 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F1043" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="G1043" t="n">
         <v>0.16</v>
       </c>
       <c r="H1043" t="n">
-        <v>0.165</v>
+        <v>0.175</v>
       </c>
       <c r="I1043" t="n">
-        <v>1652800</v>
+        <v>4093300</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1044" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>2756100</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1045" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>2045100</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1046" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>1446900</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1047" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>4433200</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1048" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>5878300</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1049" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>3898400</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1050" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>4357000</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1051" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>2172100</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1052" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>1652800</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B1044" t="inlineStr">
+      <c r="B1053" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C1044" t="inlineStr">
-        <is>
-          <t>0180</t>
-        </is>
-      </c>
-      <c r="D1044" t="inlineStr">
-        <is>
-          <t>KTC</t>
-        </is>
-      </c>
-      <c r="E1044" t="n">
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1053" t="n">
         <v>0.155</v>
       </c>
-      <c r="F1044" t="n">
+      <c r="F1053" t="n">
         <v>0.16</v>
       </c>
-      <c r="G1044" t="n">
+      <c r="G1053" t="n">
         <v>0.14</v>
       </c>
-      <c r="H1044" t="n">
+      <c r="H1053" t="n">
         <v>0.16</v>
       </c>
-      <c r="I1044" t="n">
+      <c r="I1053" t="n">
         <v>2810200</v>
       </c>
     </row>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1053"/>
+  <dimension ref="A1:I1054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37247,6 +37247,41 @@
         <v>2810200</v>
       </c>
     </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1054" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>2585800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1054"/>
+  <dimension ref="A1:I1055"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37282,6 +37282,41 @@
         <v>2585800</v>
       </c>
     </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1055" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>2497500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1055"/>
+  <dimension ref="A1:I1056"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37317,6 +37317,41 @@
         <v>2497500</v>
       </c>
     </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1056" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>1502700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1056"/>
+  <dimension ref="A1:I1057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37352,6 +37352,41 @@
         <v>1502700</v>
       </c>
     </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1057" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>3169700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1057"/>
+  <dimension ref="A1:I1058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37387,6 +37387,41 @@
         <v>3169700</v>
       </c>
     </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1058" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>2595600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1058"/>
+  <dimension ref="A1:I1059"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37422,6 +37422,41 @@
         <v>2595600</v>
       </c>
     </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1059" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>1034100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1059"/>
+  <dimension ref="A1:I1060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37457,6 +37457,41 @@
         <v>1034100</v>
       </c>
     </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1060" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>1683600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1060"/>
+  <dimension ref="A1:I1061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37492,6 +37492,41 @@
         <v>1683600</v>
       </c>
     </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1061" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>2148700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1061"/>
+  <dimension ref="A1:I1062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37527,6 +37527,41 @@
         <v>2148700</v>
       </c>
     </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1062" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>1651000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1062"/>
+  <dimension ref="A1:I1063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37562,6 +37562,41 @@
         <v>1651000</v>
       </c>
     </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1063" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>1962000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1063"/>
+  <dimension ref="A1:I1064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37597,6 +37597,41 @@
         <v>1962000</v>
       </c>
     </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1064" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>2147500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1064"/>
+  <dimension ref="A1:I1065"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37632,6 +37632,41 @@
         <v>2147500</v>
       </c>
     </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1065" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>2093400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1065"/>
+  <dimension ref="A1:I1066"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37667,6 +37667,41 @@
         <v>2093400</v>
       </c>
     </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1066" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>2626800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1066"/>
+  <dimension ref="A1:I1067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37702,6 +37702,41 @@
         <v>2626800</v>
       </c>
     </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1067" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>1813400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1067"/>
+  <dimension ref="A1:I1068"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37737,6 +37737,41 @@
         <v>1813400</v>
       </c>
     </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1068" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>1405000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1068"/>
+  <dimension ref="A1:I1069"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37772,6 +37772,41 @@
         <v>1405000</v>
       </c>
     </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1069" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>978900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1069"/>
+  <dimension ref="A1:I1070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37807,6 +37807,41 @@
         <v>978900</v>
       </c>
     </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1070" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>2008000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1070"/>
+  <dimension ref="A1:I1071"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37842,6 +37842,41 @@
         <v>2008000</v>
       </c>
     </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1071" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>701000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1071"/>
+  <dimension ref="A1:I1072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37877,6 +37877,41 @@
         <v>701000</v>
       </c>
     </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1072" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>1159400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1072"/>
+  <dimension ref="A1:I1073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37912,6 +37912,41 @@
         <v>1159400</v>
       </c>
     </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1073" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>581600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1073"/>
+  <dimension ref="A1:I1074"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37947,6 +37947,41 @@
         <v>581600</v>
       </c>
     </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1074" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>611900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1074"/>
+  <dimension ref="A1:I1075"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37982,6 +37982,41 @@
         <v>611900</v>
       </c>
     </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1075" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>1727400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1075"/>
+  <dimension ref="A1:I1076"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38017,6 +38017,41 @@
         <v>1727400</v>
       </c>
     </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1076" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>5503500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1076"/>
+  <dimension ref="A1:I1077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38052,6 +38052,41 @@
         <v>5503500</v>
       </c>
     </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1077" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>1480100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1077"/>
+  <dimension ref="A1:I1078"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38087,6 +38087,41 @@
         <v>1480100</v>
       </c>
     </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1078" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>1473500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1078"/>
+  <dimension ref="A1:I1080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38122,6 +38122,76 @@
         <v>1473500</v>
       </c>
     </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1079" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>2120900</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1080" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>2234100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1080"/>
+  <dimension ref="A1:I1081"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38192,6 +38192,41 @@
         <v>2234100</v>
       </c>
     </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1081" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>1117400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1081"/>
+  <dimension ref="A1:I1084"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38227,6 +38227,111 @@
         <v>1117400</v>
       </c>
     </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1082" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>2289000</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1083" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>545200</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1084" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>4796000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1084"/>
+  <dimension ref="A1:I1085"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38332,6 +38332,41 @@
         <v>4796000</v>
       </c>
     </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1085" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>19721900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1085"/>
+  <dimension ref="A1:I1086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38367,6 +38367,41 @@
         <v>19721900</v>
       </c>
     </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1086" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>5830700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0180.xlsx
+++ b/data/0180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1086"/>
+  <dimension ref="A1:I1089"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38402,6 +38402,111 @@
         <v>5830700</v>
       </c>
     </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1087" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>2059000</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1088" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>2087900</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>KTC</t>
+        </is>
+      </c>
+      <c r="E1089" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>641000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
